--- a/biology/Médecine/Centre_interministériel_de_formation_anti-drogue/Centre_interministériel_de_formation_anti-drogue.xlsx
+++ b/biology/Médecine/Centre_interministériel_de_formation_anti-drogue/Centre_interministériel_de_formation_anti-drogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_interminist%C3%A9riel_de_formation_anti-drogue</t>
+          <t>Centre_interministériel_de_formation_anti-drogue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre interministériel de formation anti-drogue (CIFAD) est situé à Fort-de-France (Martinique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_interminist%C3%A9riel_de_formation_anti-drogue</t>
+          <t>Centre_interministériel_de_formation_anti-drogue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1992, les autorités françaises ont créé le Centre interministériel de formation anti-drogue (CIFAD) afin de lutter contre ce fléau dans la Caraïbe avec le souci de former les hommes et de les conduire à une coopération internationale active dans ce domaine. 
 Le CIFAD est un groupement d’intérêt public (GIP CIFAD – 2003), lié fonctionnellement et budgétairement à la mission interministérielle de lutte contre la drogue et les conduites addictives (MILDECA). Il est soumis à conseil d’administration, comité de gestion et contrôle de la cour des comptes.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_interminist%C3%A9riel_de_formation_anti-drogue</t>
+          <t>Centre_interministériel_de_formation_anti-drogue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Fermeture du groupement d'intérêt public "centre interministériel de formation anti-drogue de Fort-de-France"</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2019, le centre, alors sous la direction du lieutenant-colonel de gendarmerie Pierre FERNANDEZ depuis 2 ans, fait l'objet d'un audit de la part de l'inspection générale de l'administration (IGA). Cette mission est confiée à Pascal Lalle.
-Le 7 février 2020 est publié l'arrêté [1]portant dissolution du groupement d'intérêt public "centre interministériel de formation anti-drogue de Fort-de-France", ordonnant sa liquidation au 1er avril 2020 et sa fermeture au 30 juin 2020.
+Le 7 février 2020 est publié l'arrêté portant dissolution du groupement d'intérêt public "centre interministériel de formation anti-drogue de Fort-de-France", ordonnant sa liquidation au 1er avril 2020 et sa fermeture au 30 juin 2020.
 </t>
         </is>
       </c>
